--- a/CASUAL/LA ACCOUNTING/ROMILLA, MARIBEL.xlsx
+++ b/CASUAL/LA ACCOUNTING/ROMILLA, MARIBEL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="137">
   <si>
     <t>PERIOD</t>
   </si>
@@ -684,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,14 +832,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -850,9 +853,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,6 +861,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1402,7 +1405,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1448,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1512,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1572,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1638,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1701,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1796,7 +1799,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1858,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1920,7 +1923,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1966,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2038,7 +2041,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2227,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,7 +2293,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,7 +2351,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2417,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2473,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2548,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2591,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2657,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2713,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3185,7 +3188,7 @@
   </sheetPr>
   <dimension ref="A2:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A84" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
@@ -3218,16 +3221,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3238,16 +3241,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>39085</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3260,16 +3263,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3295,18 +3298,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3353,7 +3356,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.517000000000003</v>
+        <v>56.017000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3363,7 +3366,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>38</v>
+        <v>39.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5129,15 +5132,17 @@
       <c r="B91" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39">
         <v>2</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
@@ -5262,19 +5267,27 @@
       <c r="A97" s="40">
         <v>45200</v>
       </c>
-      <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="B97" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="39"/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H97" s="39">
+        <v>1</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="49">
+        <v>45224</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
@@ -5780,17 +5793,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="K88:K89">
     <cfRule type="timePeriod" dxfId="31" priority="1" timePeriod="lastWeek">
@@ -5830,10 +5843,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A94" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="A98" sqref="A98:XFD99"/>
+      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5863,16 +5876,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5883,16 +5896,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>39085</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5905,16 +5918,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5940,18 +5953,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5998,7 +6011,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>4.2959999999999923</v>
+        <v>1.2959999999999923</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -8076,10 +8089,16 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
-      <c r="B103" s="20"/>
+      <c r="A103" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C103" s="13"/>
-      <c r="D103" s="39"/>
+      <c r="D103" s="39">
+        <v>1</v>
+      </c>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
       <c r="G103" s="13" t="str">
@@ -8089,13 +8108,21 @@
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
+      <c r="K103" s="49">
+        <v>45225</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
-      <c r="B104" s="20"/>
+      <c r="A104" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C104" s="13"/>
-      <c r="D104" s="39"/>
+      <c r="D104" s="39">
+        <v>1</v>
+      </c>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
       <c r="G104" s="13" t="str">
@@ -8105,13 +8132,19 @@
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
+      <c r="K104" s="49">
+        <v>45273</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
-      <c r="B105" s="20"/>
+      <c r="B105" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C105" s="13"/>
-      <c r="D105" s="39"/>
+      <c r="D105" s="39">
+        <v>1</v>
+      </c>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
       <c r="G105" s="13" t="str">
@@ -8121,7 +8154,9 @@
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
+      <c r="K105" s="61">
+        <v>45275</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
